--- a/annual-vol-returns.xlsx
+++ b/annual-vol-returns.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57233CD4-C58F-45B4-BBA3-B17ADCBC84B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF24FF-EB81-4D12-BB25-37747FB33374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Annual Data 1927-2023</t>
-  </si>
-  <si>
     <t>Yahoo Finance</t>
   </si>
   <si>
@@ -47,19 +44,7 @@
     <t xml:space="preserve"> CPI</t>
   </si>
   <si>
-    <t>1928-2023</t>
-  </si>
-  <si>
     <t>CPI</t>
-  </si>
-  <si>
-    <t>December 1927-2023</t>
-  </si>
-  <si>
-    <t>Final day year 1927-2023</t>
-  </si>
-  <si>
-    <t>1927-2023</t>
   </si>
   <si>
     <t>Real</t>
@@ -72,6 +57,21 @@
   </si>
   <si>
     <t>Log Total Nominal Returns</t>
+  </si>
+  <si>
+    <t>Annual Data 1927-2024</t>
+  </si>
+  <si>
+    <t>1928-2024</t>
+  </si>
+  <si>
+    <t>Final day year 1927-2024</t>
+  </si>
+  <si>
+    <t>December 1927-2024</t>
+  </si>
+  <si>
+    <t>1927-2024</t>
   </si>
 </sst>
 </file>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2763,6 +2763,29 @@
       </c>
       <c r="G98" s="2">
         <v>70.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.19369429191554208</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.22216568002960194</v>
+      </c>
+      <c r="D99" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>5881.63</v>
+      </c>
+      <c r="F99" s="2">
+        <v>315.60500000000002</v>
+      </c>
+      <c r="G99" s="2">
+        <v>74.83</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2802,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2790,17 +2813,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2808,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2816,39 +2839,39 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
